--- a/database/internal/marginlist_20210208.xlsx
+++ b/database/internal/marginlist_20210208.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="450" windowWidth="19200" windowHeight="6675"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="900" windowWidth="19200" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1600,9 +1600,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/internal/marginlist_20210208.xlsx
+++ b/database/internal/marginlist_20210208.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="900" windowWidth="19200" windowHeight="6675"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="2250" windowWidth="19200" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
